--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2744.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2744.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.158986021524575</v>
+        <v>1.930305123329163</v>
       </c>
       <c r="B1">
-        <v>2.414383221538566</v>
+        <v>2.753225803375244</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>3.018086910247803</v>
       </c>
       <c r="D1">
-        <v>2.365275848513398</v>
+        <v>2.679993629455566</v>
       </c>
       <c r="E1">
-        <v>1.220658611808034</v>
+        <v>1.002297282218933</v>
       </c>
     </row>
   </sheetData>
